--- a/add-not/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/add-not/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T10:39:12+00:00</t>
+    <t>2025-02-17T13:45:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
